--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Urban Space 100</t>
   </si>
   <si>
     <t xml:space="preserve">Name 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam2</t>
   </si>
   <si>
     <t xml:space="preserve">Name 2</t>
@@ -128,7 +134,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -186,12 +192,24 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>2</v>
       </c>
     </row>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -20,21 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Urban Space 100</t>
   </si>
   <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Nam1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nam2</t>
+    <t xml:space="preserve">2e</t>
   </si>
   <si>
     <t xml:space="preserve">Name 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3a</t>
   </si>
 </sst>
 </file>
@@ -134,7 +146,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -185,32 +197,58 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="position" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,41 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Urban Space 100</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3a</t>
+    <t xml:space="preserve">name2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -121,8 +101,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -143,10 +127,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -156,99 +140,37 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>123</v>
+      <c r="C1" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D1" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
-        <v>3</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="n">
-        <v>4</v>
+      <c r="A5" s="0" t="n">
+        <v>2</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>2</v>
+      <c r="C5" s="0" t="n">
+        <v>21.3</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>6</v>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="position" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,12 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
     <t xml:space="preserve">name2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmytro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor</t>
   </si>
 </sst>
 </file>
@@ -129,7 +151,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -150,7 +172,8 @@
       <c r="C1" s="0" t="n">
         <v>1.3</v>
       </c>
-      <c r="D1" s="1" t="b">
+      <c r="D1" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -169,7 +192,8 @@
       <c r="C5" s="0" t="n">
         <v>21.3</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="D5" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -182,4 +206,100 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="position" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="e2Single" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -54,9 +55,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -123,7 +125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -132,14 +134,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -152,7 +158,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -215,8 +221,8 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,4 +308,57 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>